--- a/Bootcamp/Final Project/SourceToTargetMapping.xlsx
+++ b/Bootcamp/Final Project/SourceToTargetMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdulkadir\Documents\Programming\Personal\qa\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A4EC6A-0F77-4256-9FC3-D5356A2501F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DAB66-0BCE-411B-B016-D8F3EBE51459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" xr2:uid="{EC498B59-4F0A-43BB-9C60-8C7F55799795}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -66,15 +66,6 @@
     <t>CardType</t>
   </si>
   <si>
-    <t>CardTypeID</t>
-  </si>
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>NameID</t>
-  </si>
-  <si>
     <t>OutletID</t>
   </si>
   <si>
@@ -102,13 +93,16 @@
     <t>NameDimension</t>
   </si>
   <si>
-    <t>CardTypeDimension</t>
-  </si>
-  <si>
     <t>OutletDimension</t>
   </si>
   <si>
-    <t>ProductDimension</t>
+    <t>CardID</t>
+  </si>
+  <si>
+    <t>GroupDimension</t>
+  </si>
+  <si>
+    <t>CardDimension</t>
   </si>
 </sst>
 </file>
@@ -124,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,9 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -185,12 +188,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,228 +375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C490B3AE-83E5-4E9F-8AFC-6E9CCF510459}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3048000" y="2381250"/>
-          <a:ext cx="1866900" cy="2667000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7EA757-0A6D-452A-8839-9D33E06C3719}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3038475" y="2562225"/>
-          <a:ext cx="1866900" cy="2676525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0024AC6B-3BE7-41FF-8EC6-C4F5F076B914}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3038475" y="2743200"/>
-          <a:ext cx="1876425" cy="2657475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1951891-F82C-4EAA-A0DA-EBF50F85B2CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3028950" y="2924175"/>
-          <a:ext cx="1895475" cy="2676525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -607,8 +399,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="3895725"/>
-          <a:ext cx="1885950" cy="219075"/>
+          <a:off x="3028950" y="3733800"/>
+          <a:ext cx="1905000" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -637,22 +429,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF6EE24-1DDE-4997-B8F0-16D2F9E63D4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15DB81C-3FA2-469D-A3A8-8A252F63A489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,8 +452,326 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028950" y="4105275"/>
-          <a:ext cx="1885950" cy="190500"/>
+          <a:off x="3038475" y="4867275"/>
+          <a:ext cx="1866900" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289A45A4-760E-4B9F-937B-91B15936FB47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="3114675"/>
+          <a:ext cx="1876425" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66CE0D7-DCF0-4602-B2D5-6ECA59B1EBE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="4648200"/>
+          <a:ext cx="1876425" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8575F7D7-81BF-4E2C-89DD-39775CAF9767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3019425" y="2390776"/>
+          <a:ext cx="1895475" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AB3C8D-3814-49D5-916B-5B99D21A9FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3038475" y="2962276"/>
+          <a:ext cx="1876425" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FC5D66-3B97-4AC8-A3DA-10E8C4950D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3028950" y="3133727"/>
+          <a:ext cx="1905000" cy="200023"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C58268-1023-4B41-9CE5-17CE74181F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3924300"/>
+          <a:ext cx="1895475" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -690,22 +800,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79A9C93-100D-4A08-A3B9-1A9EA786CA93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E13C9B-E474-4DFA-9995-EA4920876F52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -713,8 +823,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028950" y="4276727"/>
-          <a:ext cx="1885950" cy="190498"/>
+          <a:off x="3038475" y="4105275"/>
+          <a:ext cx="1895475" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -742,23 +852,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15DB81C-3FA2-469D-A3A8-8A252F63A489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2535AA-17FF-4FF3-847F-BC55F7966AD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -766,8 +876,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="4857750"/>
-          <a:ext cx="1866900" cy="381000"/>
+          <a:off x="3019425" y="4295775"/>
+          <a:ext cx="1895475" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -778,278 +888,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289A45A4-760E-4B9F-937B-91B15936FB47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="3133725"/>
-          <a:ext cx="1876425" cy="2905125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66CE0D7-DCF0-4602-B2D5-6ECA59B1EBE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="4467225"/>
-          <a:ext cx="1876425" cy="2333625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB350A48-99DE-4BC6-9D60-706F25A27085}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028950" y="4667250"/>
-          <a:ext cx="1885950" cy="2305050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B814849A-FB8E-4FFE-AFA7-D7FF09B3727D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3038475" y="3124200"/>
-          <a:ext cx="1895475" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79285D3C-A654-4842-A961-1897BE905E20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3038475" y="3333750"/>
-          <a:ext cx="1885950" cy="9527"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1360,15 +1205,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942C1D35-1045-4E5F-AE87-6F5AFCFC9925}">
   <dimension ref="D4:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1378,33 +1223,33 @@
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1415,46 +1260,46 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="I14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -1462,7 +1307,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1471,10 +1316,8 @@
         <v>4</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
@@ -1487,20 +1330,20 @@
         <v>6</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="I20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="3"/>
+      <c r="I20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
@@ -1543,52 +1386,46 @@
         <v>12</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="I27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="I28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="I30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="I30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
@@ -1597,31 +1434,60 @@
       <c r="J32" s="1"/>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="3"/>
+      <c r="I34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="4"/>
+      <c r="I35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="1"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="D5:E5"/>
@@ -1638,37 +1504,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
